--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,7 +97,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>Codes</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from degreeLicenseCer" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from degreeLicenseCer" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,12 +91,6 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>Codes</t>
@@ -377,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,47 +390,20 @@
         <v>27</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
+++ b/output/ValueSet-IndividualSpecialtyAndDegreeLicenseCertificateVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
